--- a/data/trans_orig/P14B12-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B12-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D7FBA66-8DA0-4E33-8F22-9B6162592FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E4DDB71-40C4-4F3B-923B-60AD807BFE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6292A9ED-8F4D-42DF-A52B-587982CFE728}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5FC5EE5C-1615-47BB-8324-7289F46BF2AD}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="181">
   <si>
     <t>Población cuya angina de pecho le limita en 2012 (Tasa respuesta: 0,66%)</t>
   </si>
@@ -139,10 +139,10 @@
     <t>78,48%</t>
   </si>
   <si>
-    <t>53,14%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
   </si>
   <si>
     <t>71,23%</t>
@@ -157,7 +157,7 @@
     <t>74,77%</t>
   </si>
   <si>
-    <t>57,96%</t>
+    <t>56,71%</t>
   </si>
   <si>
     <t>86,75%</t>
@@ -166,10 +166,10 @@
     <t>21,52%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>46,86%</t>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
   </si>
   <si>
     <t>28,77%</t>
@@ -187,16 +187,16 @@
     <t>13,25%</t>
   </si>
   <si>
-    <t>42,04%</t>
+    <t>43,29%</t>
   </si>
   <si>
     <t>77,84%</t>
   </si>
   <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
   </si>
   <si>
     <t>65,68%</t>
@@ -211,16 +211,19 @@
     <t>71,38%</t>
   </si>
   <si>
-    <t>82,98%</t>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
   </si>
   <si>
     <t>22,16%</t>
   </si>
   <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
   </si>
   <si>
     <t>34,32%</t>
@@ -235,7 +238,10 @@
     <t>28,62%</t>
   </si>
   <si>
-    <t>17,02%</t>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -253,7 +259,7 @@
     <t>74,99%</t>
   </si>
   <si>
-    <t>36,57%</t>
+    <t>37,3%</t>
   </si>
   <si>
     <t>66,1%</t>
@@ -262,16 +268,16 @@
     <t>72,43%</t>
   </si>
   <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
   </si>
   <si>
     <t>25,01%</t>
   </si>
   <si>
-    <t>63,43%</t>
+    <t>62,7%</t>
   </si>
   <si>
     <t>33,9%</t>
@@ -280,10 +286,10 @@
     <t>27,57%</t>
   </si>
   <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>62,9%</t>
   </si>
   <si>
     <t>81,94%</t>
@@ -337,184 +343,190 @@
     <t>81,18%</t>
   </si>
   <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>Población cuya angina de pecho le limita en 2023 (Tasa respuesta: 0,9%)</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
     <t>62,96%</t>
   </si>
   <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>Población cuya angina de pecho le limita en 2023 (Tasa respuesta: 0,9%)</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>74,18%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>67,88%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
+    <t>35,83%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
   </si>
   <si>
     <t>74,64%</t>
   </si>
   <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
   </si>
   <si>
     <t>75,77%</t>
   </si>
   <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
   </si>
   <si>
     <t>75,04%</t>
   </si>
   <si>
-    <t>60,88%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
+    <t>59,26%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
   </si>
   <si>
     <t>25,36%</t>
   </si>
   <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
   </si>
   <si>
     <t>24,23%</t>
   </si>
   <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
   </si>
   <si>
     <t>24,96%</t>
   </si>
   <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>39,12%</t>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
   </si>
   <si>
     <t>69,47%</t>
@@ -523,31 +535,31 @@
     <t>53,36%</t>
   </si>
   <si>
-    <t>83,15%</t>
+    <t>82,84%</t>
   </si>
   <si>
     <t>72,26%</t>
   </si>
   <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
   </si>
   <si>
     <t>70,53%</t>
   </si>
   <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
   </si>
   <si>
     <t>30,53%</t>
   </si>
   <si>
-    <t>16,85%</t>
+    <t>17,16%</t>
   </si>
   <si>
     <t>46,64%</t>
@@ -556,19 +568,19 @@
     <t>27,74%</t>
   </si>
   <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
   </si>
   <si>
     <t>29,47%</t>
   </si>
   <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
   </si>
 </sst>
 </file>
@@ -980,7 +992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B900784-02AF-4AEC-8119-BF8D5E15307C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2D5DA5-2376-4ECC-8FCF-8AB957698DA1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2043,10 +2055,10 @@
         <v>56</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,13 +2073,13 @@
         <v>4857</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -2076,13 +2088,13 @@
         <v>8505</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M23" s="7">
         <v>13</v>
@@ -2091,13 +2103,13 @@
         <v>13362</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2153,7 +2165,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2175,7 +2187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE29E59D-903C-4310-9C21-20F21D9E7CFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698B916A-926A-407A-8D96-91BD6ED7B33F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2192,7 +2204,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2312,7 +2324,7 @@
         <v>1026</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
@@ -2327,7 +2339,7 @@
         <v>1026</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>12</v>
@@ -2361,7 +2373,7 @@
         <v>1018</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>12</v>
@@ -2376,7 +2388,7 @@
         <v>1018</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>12</v>
@@ -2883,10 +2895,10 @@
         <v>6529</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -2898,7 +2910,7 @@
         <v>2327</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
@@ -2913,13 +2925,13 @@
         <v>8856</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2934,13 +2946,13 @@
         <v>2177</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -2949,7 +2961,7 @@
         <v>1194</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>12</v>
@@ -2964,13 +2976,13 @@
         <v>3371</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,13 +3050,13 @@
         <v>12451</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -3053,10 +3065,10 @@
         <v>10654</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>16</v>
@@ -3068,13 +3080,13 @@
         <v>23106</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3089,13 +3101,13 @@
         <v>2744</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -3104,13 +3116,13 @@
         <v>2024</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -3119,13 +3131,13 @@
         <v>4768</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,13 +3205,13 @@
         <v>21232</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -3208,13 +3220,13 @@
         <v>14947</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M22" s="7">
         <v>34</v>
@@ -3223,13 +3235,13 @@
         <v>36181</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3244,13 +3256,13 @@
         <v>4922</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -3259,13 +3271,13 @@
         <v>4236</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -3274,13 +3286,13 @@
         <v>9157</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,7 +3348,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3358,7 +3370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63C938A-7A69-4C8C-85A4-52E8ADFBED7A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02D8020-FCD8-4AEB-A94C-461DDFF1056B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3375,7 +3387,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3911,10 +3923,10 @@
         <v>4796</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
@@ -3929,7 +3941,7 @@
         <v>16</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>18</v>
@@ -3941,10 +3953,10 @@
         <v>6878</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>16</v>
@@ -3962,13 +3974,13 @@
         <v>807</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3983,7 +3995,7 @@
         <v>13</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -3992,13 +4004,13 @@
         <v>807</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4066,13 +4078,13 @@
         <v>929</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -4081,13 +4093,13 @@
         <v>2905</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M16" s="7">
         <v>6</v>
@@ -4096,13 +4108,13 @@
         <v>3835</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,10 +4129,10 @@
         <v>3747</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>16</v>
@@ -4132,13 +4144,13 @@
         <v>2772</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M17" s="7">
         <v>8</v>
@@ -4147,13 +4159,13 @@
         <v>6518</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>142</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4221,13 +4233,13 @@
         <v>15213</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -4236,13 +4248,13 @@
         <v>8283</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -4251,13 +4263,13 @@
         <v>23495</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4272,13 +4284,13 @@
         <v>5167</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -4287,13 +4299,13 @@
         <v>2648</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M20" s="7">
         <v>12</v>
@@ -4302,13 +4314,13 @@
         <v>7816</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,13 +4388,13 @@
         <v>22122</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H22" s="7">
         <v>27</v>
@@ -4391,13 +4403,13 @@
         <v>14121</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M22" s="7">
         <v>58</v>
@@ -4406,13 +4418,13 @@
         <v>36243</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4427,13 +4439,13 @@
         <v>9721</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
@@ -4442,13 +4454,13 @@
         <v>5420</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M23" s="7">
         <v>21</v>
@@ -4457,13 +4469,13 @@
         <v>15141</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4519,7 +4531,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B12-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B12-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E4DDB71-40C4-4F3B-923B-60AD807BFE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE3C6135-5203-40E9-BBD4-8D6F4C873061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5FC5EE5C-1615-47BB-8324-7289F46BF2AD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AD51D957-BBC9-47A9-90DB-8949AC3CD27E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -121,7 +121,7 @@
     <t>79,55%</t>
   </si>
   <si>
-    <t>20,16%</t>
+    <t>19,78%</t>
   </si>
   <si>
     <t>25,63%</t>
@@ -130,7 +130,7 @@
     <t>20,45%</t>
   </si>
   <si>
-    <t>79,84%</t>
+    <t>80,22%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -139,115 +139,115 @@
     <t>78,48%</t>
   </si>
   <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
   </si>
   <si>
     <t>71,23%</t>
   </si>
   <si>
-    <t>47,11%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
   </si>
   <si>
     <t>74,77%</t>
   </si>
   <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
   </si>
   <si>
     <t>21,52%</t>
   </si>
   <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
   </si>
   <si>
     <t>28,77%</t>
   </si>
   <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>52,89%</t>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>55,85%</t>
   </si>
   <si>
     <t>25,23%</t>
   </si>
   <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
   </si>
   <si>
     <t>77,84%</t>
   </si>
   <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
   </si>
   <si>
     <t>65,68%</t>
   </si>
   <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
   </si>
   <si>
     <t>71,38%</t>
   </si>
   <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
   </si>
   <si>
     <t>22,16%</t>
   </si>
   <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
   </si>
   <si>
     <t>34,32%</t>
   </si>
   <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
   </si>
   <si>
     <t>28,62%</t>
   </si>
   <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya angina de pecho le limita en 2015 (Tasa respuesta: 0,65%)</t>
+    <t>Población cuya angina de pecho le limita en 2016 (Tasa respuesta: 0,65%)</t>
   </si>
   <si>
     <t>50,18%</t>
@@ -259,7 +259,7 @@
     <t>74,99%</t>
   </si>
   <si>
-    <t>37,3%</t>
+    <t>30,47%</t>
   </si>
   <si>
     <t>66,1%</t>
@@ -268,16 +268,16 @@
     <t>72,43%</t>
   </si>
   <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
   </si>
   <si>
     <t>25,01%</t>
   </si>
   <si>
-    <t>62,7%</t>
+    <t>69,53%</t>
   </si>
   <si>
     <t>33,9%</t>
@@ -286,112 +286,112 @@
     <t>27,57%</t>
   </si>
   <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>63,31%</t>
   </si>
   <si>
     <t>81,94%</t>
   </si>
   <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
   </si>
   <si>
     <t>84,04%</t>
   </si>
   <si>
-    <t>52,21%</t>
+    <t>49,42%</t>
   </si>
   <si>
     <t>82,89%</t>
   </si>
   <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
   </si>
   <si>
     <t>18,06%</t>
   </si>
   <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
   </si>
   <si>
     <t>15,96%</t>
   </si>
   <si>
-    <t>47,79%</t>
+    <t>50,58%</t>
   </si>
   <si>
     <t>17,11%</t>
   </si>
   <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
   </si>
   <si>
     <t>81,18%</t>
   </si>
   <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
   </si>
   <si>
     <t>77,92%</t>
   </si>
   <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
   </si>
   <si>
     <t>79,8%</t>
   </si>
   <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
   </si>
   <si>
     <t>18,82%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
   </si>
   <si>
     <t>22,08%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
   </si>
   <si>
     <t>20,2%</t>
   </si>
   <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
   </si>
   <si>
     <t>Población cuya angina de pecho le limita en 2023 (Tasa respuesta: 0,9%)</t>
@@ -992,7 +992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A2D5DA5-2376-4ECC-8FCF-8AB957698DA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189CADD0-C342-40B5-8DEA-54509EA53F20}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2187,7 +2187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698B916A-926A-407A-8D96-91BD6ED7B33F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2629568C-0E93-4B47-AE6B-05472BC8B95B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3370,7 +3370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B02D8020-FCD8-4AEB-A94C-461DDFF1056B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED378207-6783-47DF-AFA6-858D8AAD5F77}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
